--- a/Supplementary_materials/Supplementary Table 6.xlsx
+++ b/Supplementary_materials/Supplementary Table 6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonguo/myDocuments/git_local_repo/COVIDnetwork/Supplementary_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27B9FC73-01BC-CA44-A27D-5F8D04BF61A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03286D7-4E19-8F4D-AD0F-DC9E377ADBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{553B9DB6-24DB-1945-90BA-ACFE8E5185B9}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$314</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$162</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="486">
   <si>
     <t>A6NC57</t>
   </si>
@@ -523,6 +523,978 @@
   </si>
   <si>
     <t>Complete novel proteins identified in merged subgraph</t>
+  </si>
+  <si>
+    <t>ANKRD62</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>ZSCAN5C ZSCAN5CP</t>
+  </si>
+  <si>
+    <t>ANKRD61</t>
+  </si>
+  <si>
+    <t>ARL5C ARL12</t>
+  </si>
+  <si>
+    <t>ANKDD1B</t>
+  </si>
+  <si>
+    <t>POTEM</t>
+  </si>
+  <si>
+    <t>LRRC10B</t>
+  </si>
+  <si>
+    <t>ZFP92</t>
+  </si>
+  <si>
+    <t>LRRC30</t>
+  </si>
+  <si>
+    <t>LRRC53</t>
+  </si>
+  <si>
+    <t>ZNF729</t>
+  </si>
+  <si>
+    <t>TUBB8B</t>
+  </si>
+  <si>
+    <t>ZNF716</t>
+  </si>
+  <si>
+    <t>ANKRD30BL NCRNA00164</t>
+  </si>
+  <si>
+    <t>ZNF850</t>
+  </si>
+  <si>
+    <t>ZNF724 ZNF724P</t>
+  </si>
+  <si>
+    <t>ZNF727 ZNF727P</t>
+  </si>
+  <si>
+    <t>ZNF705G</t>
+  </si>
+  <si>
+    <t>CAPN14</t>
+  </si>
+  <si>
+    <t>FOXO6</t>
+  </si>
+  <si>
+    <t>EFCAB9</t>
+  </si>
+  <si>
+    <t>ZNF487 KRBO1 ZNF487P</t>
+  </si>
+  <si>
+    <t>ANKRD66</t>
+  </si>
+  <si>
+    <t>ZNF814</t>
+  </si>
+  <si>
+    <t>KRBOX1</t>
+  </si>
+  <si>
+    <t>NPIPB4</t>
+  </si>
+  <si>
+    <t>ANKRD63</t>
+  </si>
+  <si>
+    <t>ANKRD65</t>
+  </si>
+  <si>
+    <t>PPP5D1</t>
+  </si>
+  <si>
+    <t>PPIAL4D</t>
+  </si>
+  <si>
+    <t>GRM6 GPRC1F MGLUR6</t>
+  </si>
+  <si>
+    <t>ZSCAN12 KIAA0426 ZNF305 ZNF96</t>
+  </si>
+  <si>
+    <t>ZNF737 ZNF102</t>
+  </si>
+  <si>
+    <t>ECM2</t>
+  </si>
+  <si>
+    <t>ZNF682</t>
+  </si>
+  <si>
+    <t>WEE2 WEE1B</t>
+  </si>
+  <si>
+    <t>H2AB1 H2AFB1</t>
+  </si>
+  <si>
+    <t>LINGO3 LERN2 LRRN6B</t>
+  </si>
+  <si>
+    <t>ZSCAN5DP ZSCAN5D</t>
+  </si>
+  <si>
+    <t>ZNF853</t>
+  </si>
+  <si>
+    <t>ZNF286B ZNF286C ZNF286L</t>
+  </si>
+  <si>
+    <t>ZNF728</t>
+  </si>
+  <si>
+    <t>ZNF875 HKR1</t>
+  </si>
+  <si>
+    <t>ZNF14 GIOT4 KOX6</t>
+  </si>
+  <si>
+    <t>ZNF182 KOX14 ZNF21</t>
+  </si>
+  <si>
+    <t>CPN2 ACBP</t>
+  </si>
+  <si>
+    <t>HTR1F HTR1EL</t>
+  </si>
+  <si>
+    <t>HCAR3 GPR109B HCA3 HM74B NIACR2</t>
+  </si>
+  <si>
+    <t>NPY4R PPYR1</t>
+  </si>
+  <si>
+    <t>ZNF75D ZNF75 ZNF82</t>
+  </si>
+  <si>
+    <t>GUCY2F GUC2F RETGC2</t>
+  </si>
+  <si>
+    <t>RIPK4 ANKRD3 DIK</t>
+  </si>
+  <si>
+    <t>TAS2R38 PTC</t>
+  </si>
+  <si>
+    <t>TAS2R39</t>
+  </si>
+  <si>
+    <t>TAS2R43</t>
+  </si>
+  <si>
+    <t>TAS2R31 TAS2R44</t>
+  </si>
+  <si>
+    <t>TAS2R46</t>
+  </si>
+  <si>
+    <t>TAS2R30 TAS2R47</t>
+  </si>
+  <si>
+    <t>TAS2R20 TAS2R49</t>
+  </si>
+  <si>
+    <t>TAS2R50</t>
+  </si>
+  <si>
+    <t>ZNF90</t>
+  </si>
+  <si>
+    <t>ZNF154 KIAA2003</t>
+  </si>
+  <si>
+    <t>DAZ2</t>
+  </si>
+  <si>
+    <t>NKPD1</t>
+  </si>
+  <si>
+    <t>ZNF630</t>
+  </si>
+  <si>
+    <t>ZNF528 KIAA1827</t>
+  </si>
+  <si>
+    <t>ZNF568</t>
+  </si>
+  <si>
+    <t>PLK5 PLK5P FG060302</t>
+  </si>
+  <si>
+    <t>ANKRD20A4P ANKRD20A4</t>
+  </si>
+  <si>
+    <t>ZNF831 C20orf174</t>
+  </si>
+  <si>
+    <t>TCTE1 DRC5</t>
+  </si>
+  <si>
+    <t>ZNF506</t>
+  </si>
+  <si>
+    <t>ANKRD20A2P ANKRD20A2</t>
+  </si>
+  <si>
+    <t>ZNF678</t>
+  </si>
+  <si>
+    <t>ZNF362 PP6997</t>
+  </si>
+  <si>
+    <t>LRRC38</t>
+  </si>
+  <si>
+    <t>AGAP9 CTGLF6</t>
+  </si>
+  <si>
+    <t>ANKRD20A3P ANKRD20A3</t>
+  </si>
+  <si>
+    <t>STYXL2 DUSP27</t>
+  </si>
+  <si>
+    <t>ZKSCAN2 ZNF694</t>
+  </si>
+  <si>
+    <t>TXNDC8 SPTRX3 TRX6</t>
+  </si>
+  <si>
+    <t>ZNF470 CZF1</t>
+  </si>
+  <si>
+    <t>CHADL SLRR4B</t>
+  </si>
+  <si>
+    <t>ZNF530 KIAA1508</t>
+  </si>
+  <si>
+    <t>ZNF880</t>
+  </si>
+  <si>
+    <t>PODNL1 SLRR5B</t>
+  </si>
+  <si>
+    <t>POTEH A26C3 ACTBL1 POTE22</t>
+  </si>
+  <si>
+    <t>POTEG A26C2 POTE14</t>
+  </si>
+  <si>
+    <t>RASL11A</t>
+  </si>
+  <si>
+    <t>ARL9</t>
+  </si>
+  <si>
+    <t>LINGO4 LRRN6D UNQ9248/PRO34002</t>
+  </si>
+  <si>
+    <t>ZNF730</t>
+  </si>
+  <si>
+    <t>ZNF782</t>
+  </si>
+  <si>
+    <t>ZNF66 ZNF66P</t>
+  </si>
+  <si>
+    <t>ZNF841</t>
+  </si>
+  <si>
+    <t>ZNF705A</t>
+  </si>
+  <si>
+    <t>LRRC9</t>
+  </si>
+  <si>
+    <t>LRRC55</t>
+  </si>
+  <si>
+    <t>EP400P1 EP400NL</t>
+  </si>
+  <si>
+    <t>TAS2R42 TAS2R55</t>
+  </si>
+  <si>
+    <t>SPATA21</t>
+  </si>
+  <si>
+    <t>GPR149 PGR10</t>
+  </si>
+  <si>
+    <t>TTC6 C14orf25 NCRNA00291</t>
+  </si>
+  <si>
+    <t>ZNF654</t>
+  </si>
+  <si>
+    <t>ZFP82 KIAA1948 ZNF545</t>
+  </si>
+  <si>
+    <t>LRRC43</t>
+  </si>
+  <si>
+    <t>LRRC17 P37NB UNQ3076/PRO9909</t>
+  </si>
+  <si>
+    <t>ZNF525 KIAA1979</t>
+  </si>
+  <si>
+    <t>ZNF283</t>
+  </si>
+  <si>
+    <t>ZNF676</t>
+  </si>
+  <si>
+    <t>PPM1N</t>
+  </si>
+  <si>
+    <t>ZNF713</t>
+  </si>
+  <si>
+    <t>ZNF781</t>
+  </si>
+  <si>
+    <t>LRTM2</t>
+  </si>
+  <si>
+    <t>ZNF709</t>
+  </si>
+  <si>
+    <t>ZNF527 KIAA1829</t>
+  </si>
+  <si>
+    <t>ZNF540 Nbla10512</t>
+  </si>
+  <si>
+    <t>ZNF738</t>
+  </si>
+  <si>
+    <t>ZNF680</t>
+  </si>
+  <si>
+    <t>KLF14 BTEB5</t>
+  </si>
+  <si>
+    <t>CAPSL</t>
+  </si>
+  <si>
+    <t>ZNF799 ZNF842</t>
+  </si>
+  <si>
+    <t>CALML4</t>
+  </si>
+  <si>
+    <t>ZNF486 KRBO2</t>
+  </si>
+  <si>
+    <t>ZNF469 KIAA1858</t>
+  </si>
+  <si>
+    <t>RSKR SGK494</t>
+  </si>
+  <si>
+    <t>CNBD2 C20orf152</t>
+  </si>
+  <si>
+    <t>FBXL18 FBL18</t>
+  </si>
+  <si>
+    <t>ZNF560</t>
+  </si>
+  <si>
+    <t>ZNF681</t>
+  </si>
+  <si>
+    <t>ZNF570</t>
+  </si>
+  <si>
+    <t>LRRC7 KIAA1365 LAP1</t>
+  </si>
+  <si>
+    <t>OXGR1 GPR80 GPR99 P2RY15 P2Y15</t>
+  </si>
+  <si>
+    <t>HCAR1 GPR104 GPR81 HCA1 FKSG80</t>
+  </si>
+  <si>
+    <t>ASPN PLAP1 SLRR1C UNQ215/PRO241</t>
+  </si>
+  <si>
+    <t>ANKRD30B</t>
+  </si>
+  <si>
+    <t>ANKRD30A</t>
+  </si>
+  <si>
+    <t>ZNF717</t>
+  </si>
+  <si>
+    <t>SHANK3 KIAA1650 PROSAP2 PSAP2</t>
+  </si>
+  <si>
+    <t>ANKRD60 C20orf86</t>
+  </si>
+  <si>
+    <t>ZNF700</t>
+  </si>
+  <si>
+    <t>HRH4 GPCR105</t>
+  </si>
+  <si>
+    <t>ZBTB3</t>
+  </si>
+  <si>
+    <t>RERGL</t>
+  </si>
+  <si>
+    <t>LRRC19</t>
+  </si>
+  <si>
+    <t>ZNF442</t>
+  </si>
+  <si>
+    <t>EFCAB1</t>
+  </si>
+  <si>
+    <t>ZNF304</t>
+  </si>
+  <si>
+    <t>DAZ3</t>
+  </si>
+  <si>
+    <t>ZNF275</t>
+  </si>
+  <si>
+    <t>TAS2R16</t>
+  </si>
+  <si>
+    <t>TAS2R14</t>
+  </si>
+  <si>
+    <t>TAS2R4</t>
+  </si>
+  <si>
+    <t>TAS2R3</t>
+  </si>
+  <si>
+    <t>ZNF222</t>
+  </si>
+  <si>
+    <t>LRFN2 KIAA1246 SALM1</t>
+  </si>
+  <si>
+    <t>CNOT6 CCR4 CCR4a KIAA1194</t>
+  </si>
+  <si>
+    <t>PNMA8B KIAA1183 PNMAL2</t>
+  </si>
+  <si>
+    <t>ZFP30 KIAA0961 ZNF745</t>
+  </si>
+  <si>
+    <t>ZNF780B ZNF779</t>
+  </si>
+  <si>
+    <t>Encoding Gene</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Ankyrin repeat domain-containing protein 62</t>
+  </si>
+  <si>
+    <t>Putative ubiquitin-like protein FUBI-like protein ENSP00000310146</t>
+  </si>
+  <si>
+    <t>Zinc finger and SCAN domain-containing protein 5C (Zinc finger and SCAN domain-containing protein 5C pseudogene)</t>
+  </si>
+  <si>
+    <t>Ankyrin repeat domain-containing protein 61</t>
+  </si>
+  <si>
+    <t>Putative ADP-ribosylation factor-like protein 5C (ADP-ribosylation factor-like protein 12)</t>
+  </si>
+  <si>
+    <t>Ankyrin repeat and death domain-containing protein 1B</t>
+  </si>
+  <si>
+    <t>Putative POTE ankyrin domain family member M</t>
+  </si>
+  <si>
+    <t>Leucine-rich repeat-containing protein 10B</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 92 homolog (Zfp-92)</t>
+  </si>
+  <si>
+    <t>Leucine-rich repeat-containing protein 30</t>
+  </si>
+  <si>
+    <t>Leucine-rich repeat-containing protein 53</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 729</t>
+  </si>
+  <si>
+    <t>Tubulin beta 8B</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 716</t>
+  </si>
+  <si>
+    <t>Putative ankyrin repeat domain-containing protein 30B-like</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 850</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 724</t>
+  </si>
+  <si>
+    <t>Putative zinc finger protein 727 (Zinc finger protein 727 pseudogene)</t>
+  </si>
+  <si>
+    <t>Putative zinc finger protein 705G</t>
+  </si>
+  <si>
+    <t>Calpain-14 (EC 3.4.22.-) (Calcium-activated neutral proteinase 14) (CANP 14)</t>
+  </si>
+  <si>
+    <t>Forkhead box protein O6</t>
+  </si>
+  <si>
+    <t>EF-hand calcium-binding domain-containing protein 9</t>
+  </si>
+  <si>
+    <t>Putative zinc finger protein 487 (KRAB domain only protein 1)</t>
+  </si>
+  <si>
+    <t>Ankyrin repeat domain-containing protein 66</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 814</t>
+  </si>
+  <si>
+    <t>KRAB domain-containing protein 1</t>
+  </si>
+  <si>
+    <t>Nuclear pore complex-interacting protein family member B4</t>
+  </si>
+  <si>
+    <t>Ankyrin repeat domain-containing protein 63</t>
+  </si>
+  <si>
+    <t>Ankyrin repeat domain-containing protein 65</t>
+  </si>
+  <si>
+    <t>Protein PPP5D1 (PPP5 TPR repeat domain-containing protein 1)</t>
+  </si>
+  <si>
+    <t>Peptidyl-prolyl cis-trans isomerase A-like 4D (PPIase A-like 4D) (EC 5.2.1.8)</t>
+  </si>
+  <si>
+    <t>Metabotropic glutamate receptor 6 (mGluR6)</t>
+  </si>
+  <si>
+    <t>Zinc finger and SCAN domain-containing protein 12 (Zinc finger protein 305) (Zinc finger protein 96)</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 737 (Zinc finger protein 102)</t>
+  </si>
+  <si>
+    <t>Extracellular matrix protein 2 (Matrix glycoprotein SC1/ECM2)</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 682</t>
+  </si>
+  <si>
+    <t>Wee1-like protein kinase 2 (EC 2.7.10.2) (Wee1-like protein kinase 1B) (Wee1B kinase)</t>
+  </si>
+  <si>
+    <t>Histone H2A-Bbd type 1 (H2A Barr body-deficient) (H2A.B) (H2A.Bbd)</t>
+  </si>
+  <si>
+    <t>Leucine-rich repeat and immunoglobulin-like domain-containing nogo receptor-interacting protein 3 (Leucine-rich repeat neuronal protein 2) (Leucine-rich repeat neuronal protein 6B)</t>
+  </si>
+  <si>
+    <t>Putative zinc finger and SCAN domain-containing protein 5D (Zinc finger and SCAN domain-containing protein 5D pseudogene)</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 853</t>
+  </si>
+  <si>
+    <t>Putative zinc finger protein 286B</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 728</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 875 (Krueppel-related zinc finger protein 1) (Protein HKR1)</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 14 (Gonadotropin-inducible ovary transcription repressor 4) (GIOT-4) (Zinc finger protein KOX6)</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 182 (Zinc finger protein 21) (Zinc finger protein KOX14)</t>
+  </si>
+  <si>
+    <t>Carboxypeptidase N subunit 2 (Carboxypeptidase N 83 kDa chain) (Carboxypeptidase N large subunit) (Carboxypeptidase N polypeptide 2) (Carboxypeptidase N regulatory subunit)</t>
+  </si>
+  <si>
+    <t>5-hydroxytryptamine receptor 1F (5-HT-1F) (5-HT1F) (Serotonin receptor 1F)</t>
+  </si>
+  <si>
+    <t>Hydroxycarboxylic acid receptor 3 (G-protein coupled receptor 109B) (G-protein coupled receptor HM74) (G-protein coupled receptor HM74B) (Niacin receptor 2) (Nicotinic acid receptor 2)</t>
+  </si>
+  <si>
+    <t>Neuropeptide Y receptor type 4 (NPY4-R) (Pancreatic polypeptide receptor 1) (PP1)</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 75D (Zinc finger protein 75) (Zinc finger protein 82)</t>
+  </si>
+  <si>
+    <t>Retinal guanylyl cyclase 2 (RETGC-2) (EC 4.6.1.2) (Guanylate cyclase 2F, retinal) (Guanylate cyclase F) (GC-F) (Rod outer segment membrane guanylate cyclase 2) (ROS-GC2)</t>
+  </si>
+  <si>
+    <t>Receptor-interacting serine/threonine-protein kinase 4 (EC 2.7.11.1) (Ankyrin repeat domain-containing protein 3) (PKC-delta-interacting protein kinase)</t>
+  </si>
+  <si>
+    <t>Taste receptor type 2 member 38 (T2R38) (PTC bitter taste receptor) (Taste receptor type 2 member 61) (T2R61)</t>
+  </si>
+  <si>
+    <t>Taste receptor type 2 member 39 (T2R39) (Taste receptor type 2 member 57) (T2R57)</t>
+  </si>
+  <si>
+    <t>Taste receptor type 2 member 43 (T2R43) (Taste receptor type 2 member 52) (T2R52)</t>
+  </si>
+  <si>
+    <t>Taste receptor type 2 member 31 (T2R31) (Taste receptor type 2 member 44) (T2R44) (Taste receptor type 2 member 53) (T2R53)</t>
+  </si>
+  <si>
+    <t>Taste receptor type 2 member 46 (T2R46) (Taste receptor type 2 member 54) (T2R54)</t>
+  </si>
+  <si>
+    <t>Taste receptor type 2 member 30 (T2R30) (Taste receptor type 2 member 47) (T2R47)</t>
+  </si>
+  <si>
+    <t>Taste receptor type 2 member 20 (Taste receptor type 2 member 49) (T2R49) (Taste receptor type 2 member 56) (T2R56)</t>
+  </si>
+  <si>
+    <t>Taste receptor type 2 member 50 (T2R50) (Taste receptor type 2 member 51) (T2R51)</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 90 (Zinc finger protein HTF9)</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 154</t>
+  </si>
+  <si>
+    <t>Deleted in azoospermia protein 2</t>
+  </si>
+  <si>
+    <t>NTPase KAP family P-loop domain-containing protein 1</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 630</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 528</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 568</t>
+  </si>
+  <si>
+    <t>Inactive serine/threonine-protein kinase PLK5 (Polo-like kinase 5) (PLK-5)</t>
+  </si>
+  <si>
+    <t>Putative ankyrin repeat domain-containing protein 20A4 (Ankyrin repeat domain-containing protein 20A4 pseudogene)</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 831</t>
+  </si>
+  <si>
+    <t>Dynein regulatory complex subunit 5 (T-complex-associated testis-expressed protein 1) (Tcte-1)</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 506</t>
+  </si>
+  <si>
+    <t>Putative ankyrin repeat domain-containing protein 20A2 (Ankyrin repeat domain-containing protein 20A2 pseudogene)</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 678</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 362</t>
+  </si>
+  <si>
+    <t>Leucine-rich repeat-containing protein 38 (BK channel auxiliary gamma subunit LRRC38)</t>
+  </si>
+  <si>
+    <t>Arf-GAP with GTPase, ANK repeat and PH domain-containing protein 9 (AGAP-9) (Centaurin-gamma-like family member 6)</t>
+  </si>
+  <si>
+    <t>Putative ankyrin repeat domain-containing protein 20A3 (Ankyrin repeat domain-containing protein 20A3 pseudogene)</t>
+  </si>
+  <si>
+    <t>Serine/threonine/tyrosine-interacting-like protein 2 (Inactive dual specificity phosphatase 27)</t>
+  </si>
+  <si>
+    <t>Zinc finger protein with KRAB and SCAN domains 2 (Zinc finger protein 694)</t>
+  </si>
+  <si>
+    <t>Thioredoxin domain-containing protein 8 (Spermatid-specific thioredoxin-3) (Sptrx-3) (Thioredoxin-6)</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 470 (Chondrogenesis zinc finger protein 1) (CZF-1)</t>
+  </si>
+  <si>
+    <t>Chondroadherin-like protein</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 530</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 880</t>
+  </si>
+  <si>
+    <t>Podocan-like protein 1</t>
+  </si>
+  <si>
+    <t>POTE ankyrin domain family member H (ANKRD26-like family C member 3) (Prostate, ovary, testis-expressed protein on chromosome 22) (POTE-22)</t>
+  </si>
+  <si>
+    <t>POTE ankyrin domain family member G (ANKRD26-like family C member 2) (Prostate, ovary, testis-expressed protein on chromosome 14) (POTE-14)</t>
+  </si>
+  <si>
+    <t>Ras-like protein family member 11A (EC 3.6.5.2)</t>
+  </si>
+  <si>
+    <t>ADP-ribosylation factor-like protein 9</t>
+  </si>
+  <si>
+    <t>Leucine-rich repeat and immunoglobulin-like domain-containing nogo receptor-interacting protein 4 (Leucine-rich repeat neuronal protein 6D)</t>
+  </si>
+  <si>
+    <t>Putative zinc finger protein 730</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 782</t>
+  </si>
+  <si>
+    <t>Putative zinc finger protein 66 (Zinc finger protein 66 pseudogene)</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 841</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 705A</t>
+  </si>
+  <si>
+    <t>Leucine-rich repeat-containing protein 9</t>
+  </si>
+  <si>
+    <t>Leucine-rich repeat-containing protein 55 (BK channel auxiliary gamma subunit LRRC55)</t>
+  </si>
+  <si>
+    <t>Putative EP400-like protein (EP400 pseudogene 1)</t>
+  </si>
+  <si>
+    <t>Taste receptor type 2 member 42 (T2R42) (Taste receptor type 2 member 55) (T2R55)</t>
+  </si>
+  <si>
+    <t>Spermatogenesis-associated protein 21</t>
+  </si>
+  <si>
+    <t>Probable G-protein coupled receptor 149 (G-protein coupled receptor PGR10)</t>
+  </si>
+  <si>
+    <t>Tetratricopeptide repeat protein 6 (TPR repeat protein 6)</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 654 (Melanoma-associated antigen)</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 82 homolog (Zfp-82) (Zinc finger protein 545)</t>
+  </si>
+  <si>
+    <t>Leucine-rich repeat-containing protein 43</t>
+  </si>
+  <si>
+    <t>Leucine-rich repeat-containing protein 17 (p37NB)</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 525</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 283 (Zinc finger protein HZF19)</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 676</t>
+  </si>
+  <si>
+    <t>Probable protein phosphatase 1N (EC 3.1.3.16)</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 713</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 781</t>
+  </si>
+  <si>
+    <t>Leucine-rich repeat and transmembrane domain-containing protein 2</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 709</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 527</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 540</t>
+  </si>
+  <si>
+    <t>Protein ZNF738</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 680</t>
+  </si>
+  <si>
+    <t>Krueppel-like factor 14 (Basic transcription element-binding protein 5) (BTE-binding protein 5) (Transcription factor BTEB5)</t>
+  </si>
+  <si>
+    <t>Calcyphosin-like protein</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 799 (Zinc finger protein 842)</t>
+  </si>
+  <si>
+    <t>Calmodulin-like protein 4 (Serologically defined breast cancer antigen NY-BR-20)</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 486 (KRAB domain only protein 2)</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 469</t>
+  </si>
+  <si>
+    <t>Ribosomal protein S6 kinase-related protein (EC 2.7.11.1) (Sugen kinase 494)</t>
+  </si>
+  <si>
+    <t>Cyclic nucleotide-binding domain-containing protein 2</t>
+  </si>
+  <si>
+    <t>F-box/LRR-repeat protein 18 (F-box and leucine-rich repeat protein 18)</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 560</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 681</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 570</t>
+  </si>
+  <si>
+    <t>Leucine-rich repeat-containing protein 7 (Densin-180) (Densin) (Protein LAP1)</t>
+  </si>
+  <si>
+    <t>2-oxoglutarate receptor 1 (Alpha-ketoglutarate receptor 1) (G-protein coupled receptor 80) (G-protein coupled receptor 99) (P2Y purinoceptor 15) (P2Y15) (P2Y-like GPCR) (P2Y-like nucleotide receptor)</t>
+  </si>
+  <si>
+    <t>Hydroxycarboxylic acid receptor 1 (G-protein coupled receptor 104) (G-protein coupled receptor 81)</t>
+  </si>
+  <si>
+    <t>Asporin (Periodontal ligament-associated protein 1) (PLAP-1)</t>
+  </si>
+  <si>
+    <t>Ankyrin repeat domain-containing protein 30B (Serologically defined breast cancer antigen NY-BR-1.1)</t>
+  </si>
+  <si>
+    <t>Ankyrin repeat domain-containing protein 30A (Serologically defined breast cancer antigen NY-BR-1)</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 717 (Krueppel-like factor X17)</t>
+  </si>
+  <si>
+    <t>SH3 and multiple ankyrin repeat domains protein 3 (Shank3) (Proline-rich synapse-associated protein 2) (ProSAP2)</t>
+  </si>
+  <si>
+    <t>Ankyrin repeat domain-containing protein 60</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 700</t>
+  </si>
+  <si>
+    <t>Histamine H4 receptor (H4R) (HH4R) (AXOR35) (G-protein coupled receptor 105) (GPRv53) (Pfi-013) (SP9144)</t>
+  </si>
+  <si>
+    <t>Zinc finger and BTB domain-containing protein 3</t>
+  </si>
+  <si>
+    <t>Ras-related and estrogen-regulated growth inhibitor-like protein (EC 3.6.5.2) (RERG/Ras-like protein)</t>
+  </si>
+  <si>
+    <t>Leucine-rich repeat-containing protein 19</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 442</t>
+  </si>
+  <si>
+    <t>EF-hand calcium-binding domain-containing protein 1</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 304 (KRAB-containing zinc finger protein)</t>
+  </si>
+  <si>
+    <t>Deleted in azoospermia protein 3</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 275</t>
+  </si>
+  <si>
+    <t>Taste receptor type 2 member 16 (T2R16)</t>
+  </si>
+  <si>
+    <t>Taste receptor type 2 member 14 (T2R14) (Taste receptor family B member 1) (TRB1)</t>
+  </si>
+  <si>
+    <t>Taste receptor type 2 member 4 (T2R4)</t>
+  </si>
+  <si>
+    <t>Taste receptor type 2 member 3 (T2R3)</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 222</t>
+  </si>
+  <si>
+    <t>Leucine-rich repeat and fibronectin type-III domain-containing protein 2 (Synaptic adhesion-like molecule 1)</t>
+  </si>
+  <si>
+    <t>CCR4-NOT transcription complex subunit 6 (EC 3.1.13.4) (CCR4 carbon catabolite repression 4-like) (Carbon catabolite repressor protein 4 homolog) (Cytoplasmic deadenylase)</t>
+  </si>
+  <si>
+    <t>Paraneoplastic antigen-like protein 8B (PNMA-like protein 2)</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 30 homolog (Zfp-30) (Zinc finger protein 745)</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 780B (Zinc finger protein 779)</t>
   </si>
 </sst>
 </file>
@@ -888,10 +1860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431B315A-2755-C541-AD05-166DC20398D4}">
-  <dimension ref="A1:A162"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -899,818 +1871,1790 @@
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C26" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C30" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>195</v>
+      </c>
+      <c r="C35" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>199</v>
+      </c>
+      <c r="C39" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C40" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>201</v>
+      </c>
+      <c r="C41" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>203</v>
+      </c>
+      <c r="C43" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>204</v>
+      </c>
+      <c r="C44" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>205</v>
+      </c>
+      <c r="C45" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>207</v>
+      </c>
+      <c r="C47" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>208</v>
+      </c>
+      <c r="C48" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>210</v>
+      </c>
+      <c r="C50" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>211</v>
+      </c>
+      <c r="C51" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>212</v>
+      </c>
+      <c r="C52" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>213</v>
+      </c>
+      <c r="C53" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>214</v>
+      </c>
+      <c r="C54" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>215</v>
+      </c>
+      <c r="C55" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C56" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C57" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>218</v>
+      </c>
+      <c r="C58" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>219</v>
+      </c>
+      <c r="C59" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>220</v>
+      </c>
+      <c r="C60" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>221</v>
+      </c>
+      <c r="C61" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>222</v>
+      </c>
+      <c r="C62" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>223</v>
+      </c>
+      <c r="C63" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>224</v>
+      </c>
+      <c r="C64" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>225</v>
+      </c>
+      <c r="C65" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>226</v>
+      </c>
+      <c r="C66" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>227</v>
+      </c>
+      <c r="C67" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>228</v>
+      </c>
+      <c r="C68" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>229</v>
+      </c>
+      <c r="C69" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>230</v>
+      </c>
+      <c r="C70" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>231</v>
+      </c>
+      <c r="C71" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>232</v>
+      </c>
+      <c r="C72" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>233</v>
+      </c>
+      <c r="C73" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>234</v>
+      </c>
+      <c r="C74" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>235</v>
+      </c>
+      <c r="C75" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>236</v>
+      </c>
+      <c r="C76" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>237</v>
+      </c>
+      <c r="C77" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>238</v>
+      </c>
+      <c r="C78" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>239</v>
+      </c>
+      <c r="C79" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>240</v>
+      </c>
+      <c r="C80" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>241</v>
+      </c>
+      <c r="C81" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>242</v>
+      </c>
+      <c r="C82" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>243</v>
+      </c>
+      <c r="C83" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>244</v>
+      </c>
+      <c r="C84" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>245</v>
+      </c>
+      <c r="C85" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>246</v>
+      </c>
+      <c r="C86" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>247</v>
+      </c>
+      <c r="C87" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>248</v>
+      </c>
+      <c r="C88" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>249</v>
+      </c>
+      <c r="C89" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>250</v>
+      </c>
+      <c r="C90" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>251</v>
+      </c>
+      <c r="C91" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>252</v>
+      </c>
+      <c r="C92" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C93" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>254</v>
+      </c>
+      <c r="C94" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>255</v>
+      </c>
+      <c r="C95" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>256</v>
+      </c>
+      <c r="C96" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>257</v>
+      </c>
+      <c r="C97" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>258</v>
+      </c>
+      <c r="C98" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>259</v>
+      </c>
+      <c r="C99" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>260</v>
+      </c>
+      <c r="C100" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>261</v>
+      </c>
+      <c r="C101" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>262</v>
+      </c>
+      <c r="C102" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>263</v>
+      </c>
+      <c r="C103" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>264</v>
+      </c>
+      <c r="C104" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>265</v>
+      </c>
+      <c r="C105" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>266</v>
+      </c>
+      <c r="C106" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>267</v>
+      </c>
+      <c r="C107" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>268</v>
+      </c>
+      <c r="C108" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>269</v>
+      </c>
+      <c r="C109" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>270</v>
+      </c>
+      <c r="C110" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>271</v>
+      </c>
+      <c r="C111" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>272</v>
+      </c>
+      <c r="C112" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>273</v>
+      </c>
+      <c r="C113" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>274</v>
+      </c>
+      <c r="C114" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>275</v>
+      </c>
+      <c r="C115" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>276</v>
+      </c>
+      <c r="C116" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>277</v>
+      </c>
+      <c r="C117" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>278</v>
+      </c>
+      <c r="C118" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>279</v>
+      </c>
+      <c r="C119" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>280</v>
+      </c>
+      <c r="C120" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>281</v>
+      </c>
+      <c r="C121" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>282</v>
+      </c>
+      <c r="C122" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>283</v>
+      </c>
+      <c r="C123" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>284</v>
+      </c>
+      <c r="C124" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>285</v>
+      </c>
+      <c r="C125" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>286</v>
+      </c>
+      <c r="C126" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>287</v>
+      </c>
+      <c r="C127" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>288</v>
+      </c>
+      <c r="C128" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>289</v>
+      </c>
+      <c r="C129" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>290</v>
+      </c>
+      <c r="C130" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>291</v>
+      </c>
+      <c r="C131" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>292</v>
+      </c>
+      <c r="C132" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>293</v>
+      </c>
+      <c r="C133" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>294</v>
+      </c>
+      <c r="C134" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>295</v>
+      </c>
+      <c r="C135" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>296</v>
+      </c>
+      <c r="C136" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>297</v>
+      </c>
+      <c r="C137" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>298</v>
+      </c>
+      <c r="C138" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>299</v>
+      </c>
+      <c r="C139" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>300</v>
+      </c>
+      <c r="C140" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>301</v>
+      </c>
+      <c r="C141" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>302</v>
+      </c>
+      <c r="C142" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>303</v>
+      </c>
+      <c r="C143" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>304</v>
+      </c>
+      <c r="C144" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>305</v>
+      </c>
+      <c r="C145" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>306</v>
+      </c>
+      <c r="C146" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>307</v>
+      </c>
+      <c r="C147" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
+        <v>308</v>
+      </c>
+      <c r="C148" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
+        <v>309</v>
+      </c>
+      <c r="C149" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
+        <v>310</v>
+      </c>
+      <c r="C150" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>311</v>
+      </c>
+      <c r="C151" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
+        <v>312</v>
+      </c>
+      <c r="C152" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
+        <v>313</v>
+      </c>
+      <c r="C153" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B154" t="s">
+        <v>314</v>
+      </c>
+      <c r="C154" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B155" t="s">
+        <v>315</v>
+      </c>
+      <c r="C155" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B156" t="s">
+        <v>316</v>
+      </c>
+      <c r="C156" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
+        <v>317</v>
+      </c>
+      <c r="C157" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B158" t="s">
+        <v>318</v>
+      </c>
+      <c r="C158" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B159" t="s">
+        <v>319</v>
+      </c>
+      <c r="C159" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B160" t="s">
+        <v>320</v>
+      </c>
+      <c r="C160" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B161" t="s">
+        <v>321</v>
+      </c>
+      <c r="C161" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>160</v>
       </c>
+      <c r="B162" t="s">
+        <v>322</v>
+      </c>
+      <c r="C162" t="s">
+        <v>485</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A314" xr:uid="{431B315A-2755-C541-AD05-166DC20398D4}"/>
+  <autoFilter ref="A1:C162" xr:uid="{431B315A-2755-C541-AD05-166DC20398D4}"/>
   <conditionalFormatting sqref="A2:A162 A163:B1048576 B1:B162">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
